--- a/cleaned last season/lastseasoniplbatting.xlsx
+++ b/cleaned last season/lastseasoniplbatting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CB1C7-6572-9D46-A7FF-AA7AEF306E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C195A-BBCF-4142-88CB-B1C78FF5348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14720" yWindow="880" windowWidth="14480" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Player</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Sameer Rizvi</t>
+  </si>
+  <si>
+    <t>Zeros</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,8 +687,8 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
-        <v>0</v>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
